--- a/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>71.980700051727212</v>
+        <v>71.980700109545865</v>
       </c>
       <c r="C2">
-        <v>54.8990234612846</v>
+        <v>54.899023471871104</v>
       </c>
       <c r="D2">
-        <v>91.675707457444446</v>
+        <v>91.675707492107009</v>
       </c>
       <c r="E2">
-        <v>56.601620919334309</v>
+        <v>56.601620962874357</v>
       </c>
       <c r="F2">
-        <v>95.895075431581972</v>
+        <v>95.89507543902586</v>
       </c>
       <c r="G2">
-        <v>41.682707842367748</v>
+        <v>41.682707862715858</v>
       </c>
       <c r="H2">
-        <v>85.746009150182061</v>
+        <v>85.746009189115782</v>
       </c>
       <c r="I2">
-        <v>55.063343728854186</v>
+        <v>55.063343755133687</v>
       </c>
       <c r="J2">
-        <v>83.943229559852782</v>
+        <v>83.943229578810588</v>
       </c>
       <c r="K2">
-        <v>75.440216238108661</v>
+        <v>75.440216252781951</v>
       </c>
       <c r="L2">
-        <v>113.507086309031</v>
+        <v>113.50708635943292</v>
       </c>
       <c r="M2">
-        <v>45.909735324975657</v>
+        <v>45.909735372552021</v>
       </c>
       <c r="N2">
-        <v>65.380419750406119</v>
+        <v>65.38041981103575</v>
       </c>
       <c r="O2">
-        <v>35.85845838938171</v>
+        <v>35.858458423859474</v>
       </c>
       <c r="P2">
-        <v>37.578830204291627</v>
+        <v>37.578830212275186</v>
       </c>
       <c r="Q2">
-        <v>33.699611941541725</v>
+        <v>33.699611955000606</v>
       </c>
       <c r="R2">
-        <v>43.70830237875635</v>
+        <v>43.708302383168899</v>
       </c>
       <c r="S2">
-        <v>61.763852132282842</v>
+        <v>61.76385215476585</v>
       </c>
       <c r="T2">
-        <v>62.761172173360876</v>
+        <v>62.761172219042599</v>
       </c>
       <c r="U2">
-        <v>52.291330658056964</v>
+        <v>52.291330678100557</v>
       </c>
       <c r="V2">
-        <v>62.517312475297857</v>
+        <v>62.517312483637447</v>
       </c>
       <c r="W2">
-        <v>35.583129721771812</v>
+        <v>35.583129770876525</v>
       </c>
       <c r="X2">
-        <v>30.074452820896781</v>
+        <v>30.074452840017695</v>
       </c>
       <c r="Y2">
-        <v>37.155393586352183</v>
+        <v>37.155393611504316</v>
       </c>
       <c r="Z2">
-        <v>71.785278375869311</v>
+        <v>71.785278393844422</v>
       </c>
       <c r="AA2">
-        <v>54.763640487387441</v>
+        <v>54.763640564791025</v>
       </c>
       <c r="AB2">
-        <v>55.210589907694143</v>
+        <v>55.21058991620604</v>
       </c>
       <c r="AC2">
-        <v>65.482906873480758</v>
+        <v>65.482906865441976</v>
       </c>
       <c r="AD2">
-        <v>56.11780058933347</v>
+        <v>56.117800596191685</v>
       </c>
       <c r="AE2">
-        <v>68.656762057490411</v>
+        <v>68.656762082843926</v>
       </c>
       <c r="AF2">
-        <v>42.403551713544466</v>
+        <v>42.403551720613407</v>
       </c>
       <c r="AG2">
-        <v>93.034466669864102</v>
+        <v>93.034466708565574</v>
       </c>
       <c r="AH2">
-        <v>58.12325379564092</v>
+        <v>58.123253813863393</v>
       </c>
       <c r="AI2">
-        <v>84.722601575746978</v>
+        <v>84.722601599728847</v>
       </c>
       <c r="AJ2">
-        <v>83.834133335035517</v>
+        <v>83.834133393997675</v>
       </c>
       <c r="AK2">
-        <v>119.10969581923861</v>
+        <v>119.10969586050174</v>
       </c>
       <c r="AL2">
-        <v>53.782259850978427</v>
+        <v>53.782259888147046</v>
       </c>
       <c r="AM2">
-        <v>64.898004445055406</v>
+        <v>64.898004515292556</v>
       </c>
       <c r="AN2">
-        <v>39.514648764461739</v>
+        <v>39.514648813360758</v>
       </c>
       <c r="AO2">
-        <v>31.344117924624353</v>
+        <v>31.344117953572294</v>
       </c>
       <c r="AP2">
-        <v>24.074800568160871</v>
+        <v>24.074800574902177</v>
       </c>
       <c r="AQ2">
-        <v>45.014378023799551</v>
+        <v>45.014378046495629</v>
       </c>
       <c r="AR2">
-        <v>60.237800712711234</v>
+        <v>60.237800734265548</v>
       </c>
       <c r="AS2">
-        <v>72.364305182983415</v>
+        <v>72.364305198451817</v>
       </c>
       <c r="AT2">
-        <v>53.914716557768237</v>
+        <v>53.914716576097661</v>
       </c>
       <c r="AU2">
-        <v>58.802387497918552</v>
+        <v>58.802387500496238</v>
       </c>
       <c r="AV2">
-        <v>49.062739214517954</v>
+        <v>49.062739250769283</v>
       </c>
       <c r="AW2">
-        <v>32.380244188816647</v>
+        <v>32.380244216830576</v>
       </c>
       <c r="AX2">
-        <v>39.44815730479263</v>
+        <v>39.448157347019382</v>
       </c>
       <c r="AY2">
-        <v>54.07756029009159</v>
+        <v>54.077560312136988</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52.235002871006294</v>
+        <v>52.235002876020943</v>
       </c>
       <c r="C3">
-        <v>67.441997288895791</v>
+        <v>67.441997328535692</v>
       </c>
       <c r="D3">
-        <v>55.640960849677548</v>
+        <v>55.64096087378681</v>
       </c>
       <c r="E3">
-        <v>58.914281641732529</v>
+        <v>58.914281663200114</v>
       </c>
       <c r="F3">
-        <v>59.424385543396042</v>
+        <v>59.424385557928851</v>
       </c>
       <c r="G3">
-        <v>44.33592450961838</v>
+        <v>44.3359245401899</v>
       </c>
       <c r="H3">
-        <v>89.419835480503352</v>
+        <v>89.419835530568179</v>
       </c>
       <c r="I3">
-        <v>40.922245853341785</v>
+        <v>40.922245864459796</v>
       </c>
       <c r="J3">
-        <v>86.59075655708601</v>
+        <v>86.590756584106984</v>
       </c>
       <c r="K3">
-        <v>69.220603644685369</v>
+        <v>69.220603669916386</v>
       </c>
       <c r="L3">
-        <v>71.637181182195533</v>
+        <v>71.637181230038564</v>
       </c>
       <c r="M3">
-        <v>45.458358083360949</v>
+        <v>45.458396311923394</v>
       </c>
       <c r="N3">
-        <v>61.871043451204251</v>
+        <v>61.871043494024434</v>
       </c>
       <c r="O3">
-        <v>42.42826500999309</v>
+        <v>42.42826502455631</v>
       </c>
       <c r="P3">
-        <v>33.716583149002474</v>
+        <v>33.71658319748137</v>
       </c>
       <c r="Q3">
-        <v>39.13654394101605</v>
+        <v>39.136543954147434</v>
       </c>
       <c r="R3">
-        <v>51.213714565156309</v>
+        <v>51.213714597804675</v>
       </c>
       <c r="S3">
-        <v>55.456489564493623</v>
+        <v>55.456489578873637</v>
       </c>
       <c r="T3">
-        <v>80.162921735969078</v>
+        <v>80.162921769802793</v>
       </c>
       <c r="U3">
-        <v>71.554002752335876</v>
+        <v>71.554002775914896</v>
       </c>
       <c r="V3">
-        <v>46.271018948148154</v>
+        <v>46.271018956361011</v>
       </c>
       <c r="W3">
-        <v>66.364385638484123</v>
+        <v>66.36438568221655</v>
       </c>
       <c r="X3">
-        <v>24.390528920901346</v>
+        <v>24.39052892833147</v>
       </c>
       <c r="Y3">
-        <v>37.712510198746969</v>
+        <v>37.71251021758907</v>
       </c>
       <c r="Z3">
-        <v>39.930960837461363</v>
+        <v>39.930960850702817</v>
       </c>
       <c r="AA3">
-        <v>47.391150083694221</v>
+        <v>47.391150123023543</v>
       </c>
       <c r="AB3">
-        <v>76.450572271393</v>
+        <v>76.450572277650565</v>
       </c>
       <c r="AC3">
-        <v>58.877363045590606</v>
+        <v>58.877363070345027</v>
       </c>
       <c r="AD3">
-        <v>69.236694771488885</v>
+        <v>69.236694814619796</v>
       </c>
       <c r="AE3">
-        <v>49.135949323592435</v>
+        <v>49.135949329274254</v>
       </c>
       <c r="AF3">
-        <v>48.463304421714597</v>
+        <v>48.46330444272624</v>
       </c>
       <c r="AG3">
-        <v>90.597951169342153</v>
+        <v>90.597951209736678</v>
       </c>
       <c r="AH3">
-        <v>45.76939714623412</v>
+        <v>45.76939713704342</v>
       </c>
       <c r="AI3">
-        <v>90.787043879856839</v>
+        <v>90.787043913901442</v>
       </c>
       <c r="AJ3">
-        <v>73.772817693437545</v>
+        <v>73.772817765408121</v>
       </c>
       <c r="AK3">
-        <v>106.46375609898875</v>
+        <v>106.4637561429963</v>
       </c>
       <c r="AL3">
-        <v>36.735567558826318</v>
+        <v>36.735567591934256</v>
       </c>
       <c r="AM3">
-        <v>53.288661448774505</v>
+        <v>53.288661504018926</v>
       </c>
       <c r="AN3">
-        <v>49.837777809629173</v>
+        <v>49.837777848804549</v>
       </c>
       <c r="AO3">
-        <v>36.35200877736581</v>
+        <v>36.352008806611686</v>
       </c>
       <c r="AP3">
-        <v>41.585220072658934</v>
+        <v>41.585220101169199</v>
       </c>
       <c r="AQ3">
-        <v>44.069593280347107</v>
+        <v>44.069593315590645</v>
       </c>
       <c r="AR3">
-        <v>56.392721234409279</v>
+        <v>56.392721249957276</v>
       </c>
       <c r="AS3">
-        <v>88.067789170382611</v>
+        <v>88.067789193246597</v>
       </c>
       <c r="AT3">
-        <v>70.401876243504915</v>
+        <v>70.401876266250497</v>
       </c>
       <c r="AU3">
-        <v>57.690779145958047</v>
+        <v>57.690779179897582</v>
       </c>
       <c r="AV3">
-        <v>70.862891632407184</v>
+        <v>70.862891740366067</v>
       </c>
       <c r="AW3">
-        <v>32.603135471620831</v>
+        <v>32.603135551247092</v>
       </c>
       <c r="AX3">
-        <v>43.041071683774007</v>
+        <v>43.041071712955777</v>
       </c>
       <c r="AY3">
-        <v>39.477841571678098</v>
+        <v>39.477841603152314</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>71.980700109545865</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>54.899023471871104</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>91.675707492107009</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>56.601620962874357</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>95.89507543902586</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>41.682707862715858</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>85.746009189115782</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>55.063343755133687</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>83.943229578810588</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>75.440216252781951</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>113.50708635943292</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>45.909735372552021</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>65.38041981103575</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>35.858458423859474</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>37.578830212275186</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>33.699611955000606</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>43.708302383168899</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>61.76385215476585</v>
@@ -588,55 +477,55 @@
         <v>71.785278393844422</v>
       </c>
       <c r="AA2">
-        <v>54.763640564791025</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>55.21058991620604</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>65.482906865441976</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>56.117800596191685</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>68.656762082843926</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>42.403551720613407</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>93.034466708565574</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>58.123253813863393</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>84.722601599728847</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>83.834133393997675</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>119.10969586050174</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>53.782259888147046</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>64.898004515292556</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>39.514648813360758</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>31.344117953572294</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>24.074800574902177</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>45.014378046495629</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>60.237800734265548</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>52.235002876020943</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>67.441997328535692</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>55.64096087378681</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>58.914281663200114</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>59.424385557928851</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>44.3359245401899</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>89.419835530568179</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>40.922245864459796</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>86.590756584106984</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>69.220603669916386</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>71.637181230038564</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>45.458396311923394</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>61.871043494024434</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>42.42826502455631</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>33.71658319748137</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>39.136543954147434</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>51.213714597804675</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>55.456489578873637</v>
@@ -743,55 +629,55 @@
         <v>39.930960850702817</v>
       </c>
       <c r="AA3">
-        <v>47.391150123023543</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>76.450572277650565</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>58.877363070345027</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>69.236694814619796</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>49.135949329274254</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>48.46330444272624</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>90.597951209736678</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>45.76939713704342</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>90.787043913901442</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>73.772817765408121</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>106.4637561429963</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.735567591934256</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>53.288661504018926</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>49.837777848804549</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>36.352008806611686</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>41.585220101169199</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>44.069593315590645</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>56.392721249957276</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>71.980700051727212</v>
+        <v>35.858458423859474</v>
       </c>
       <c r="C2">
-        <v>54.8990234612846</v>
+        <v>43.708302383168899</v>
       </c>
       <c r="D2">
-        <v>91.675707457444446</v>
+        <v>39.514648813360758</v>
       </c>
       <c r="E2">
-        <v>56.601620919334309</v>
+        <v>45.014378046495629</v>
       </c>
       <c r="F2">
         <v>95.895075431581972</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52.235002871006294</v>
+        <v>42.42826502455631</v>
       </c>
       <c r="C3">
-        <v>67.441997288895791</v>
+        <v>51.213714597804675</v>
       </c>
       <c r="D3">
-        <v>55.640960849677548</v>
+        <v>49.837777848804549</v>
       </c>
       <c r="E3">
-        <v>58.914281641732529</v>
+        <v>44.238443142811157</v>
       </c>
       <c r="F3">
         <v>59.424385543396042</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>71.980700051727212</v>
+        <v>65.38041981103575</v>
       </c>
       <c r="C2">
-        <v>54.8990234612846</v>
+        <v>35.858458423859474</v>
       </c>
       <c r="D2">
-        <v>91.675707457444446</v>
+        <v>64.898004515292556</v>
       </c>
       <c r="E2">
-        <v>56.601620919334309</v>
+        <v>39.514648813360758</v>
       </c>
       <c r="F2">
         <v>95.895075431581972</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52.235002871006294</v>
+        <v>61.871043494024434</v>
       </c>
       <c r="C3">
-        <v>67.441997288895791</v>
+        <v>42.42826502455631</v>
       </c>
       <c r="D3">
-        <v>55.640960849677548</v>
+        <v>53.288661504018926</v>
       </c>
       <c r="E3">
-        <v>58.914281641732529</v>
+        <v>49.837777848804549</v>
       </c>
       <c r="F3">
         <v>59.424385543396042</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>71.980700109545865</v>
+      </c>
+      <c r="C2">
+        <v>54.899023471871104</v>
+      </c>
+      <c r="D2">
+        <v>91.675707492107009</v>
+      </c>
+      <c r="E2">
+        <v>56.601620962874357</v>
+      </c>
+      <c r="F2">
+        <v>95.89507543902586</v>
+      </c>
+      <c r="G2">
+        <v>41.682707862715858</v>
+      </c>
+      <c r="H2">
+        <v>85.746009189115782</v>
+      </c>
+      <c r="I2">
+        <v>55.063343755133687</v>
+      </c>
+      <c r="J2">
+        <v>83.943229578810588</v>
+      </c>
+      <c r="K2">
+        <v>75.440216252781951</v>
+      </c>
+      <c r="L2">
+        <v>113.50708635943292</v>
+      </c>
+      <c r="M2">
+        <v>45.909735372552021</v>
+      </c>
+      <c r="N2">
         <v>65.38041981103575</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>35.858458423859474</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>37.578830212275186</v>
+      </c>
+      <c r="Q2">
+        <v>33.699611955000606</v>
+      </c>
+      <c r="R2">
+        <v>43.708302383168899</v>
+      </c>
+      <c r="S2">
+        <v>61.76385215476585</v>
+      </c>
+      <c r="T2">
+        <v>62.761172219042599</v>
+      </c>
+      <c r="U2">
+        <v>52.291330678100557</v>
+      </c>
+      <c r="V2">
+        <v>62.517312483637447</v>
+      </c>
+      <c r="W2">
+        <v>35.583129770876525</v>
+      </c>
+      <c r="X2">
+        <v>30.074452840017695</v>
+      </c>
+      <c r="Y2">
+        <v>37.155393611504316</v>
+      </c>
+      <c r="Z2">
+        <v>71.785278393844422</v>
+      </c>
+      <c r="AA2">
+        <v>54.763640564791025</v>
+      </c>
+      <c r="AB2">
+        <v>55.21058991620604</v>
+      </c>
+      <c r="AC2">
+        <v>65.482906865441976</v>
+      </c>
+      <c r="AD2">
+        <v>56.117800596191685</v>
+      </c>
+      <c r="AE2">
+        <v>68.656762082843926</v>
+      </c>
+      <c r="AF2">
+        <v>42.403551720613407</v>
+      </c>
+      <c r="AG2">
+        <v>93.034466708565574</v>
+      </c>
+      <c r="AH2">
+        <v>58.123253813863393</v>
+      </c>
+      <c r="AI2">
+        <v>84.722601599728847</v>
+      </c>
+      <c r="AJ2">
+        <v>83.834133393997675</v>
+      </c>
+      <c r="AK2">
+        <v>119.10969586050174</v>
+      </c>
+      <c r="AL2">
+        <v>53.782259888147046</v>
+      </c>
+      <c r="AM2">
         <v>64.898004515292556</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>39.514648813360758</v>
       </c>
-      <c r="F2">
-        <v>95.895075431581972</v>
-      </c>
-      <c r="G2">
-        <v>41.682707842367748</v>
-      </c>
-      <c r="H2">
-        <v>85.746009150182061</v>
-      </c>
-      <c r="I2">
-        <v>55.063343728854186</v>
-      </c>
-      <c r="J2">
-        <v>83.943229559852782</v>
-      </c>
-      <c r="K2">
-        <v>75.440216238108661</v>
-      </c>
-      <c r="L2">
-        <v>113.507086309031</v>
-      </c>
-      <c r="M2">
-        <v>45.909735324975657</v>
-      </c>
-      <c r="N2">
-        <v>65.380419750406119</v>
-      </c>
-      <c r="O2">
-        <v>35.85845838938171</v>
-      </c>
-      <c r="P2">
-        <v>37.578830204291627</v>
-      </c>
-      <c r="Q2">
-        <v>33.699611941541725</v>
-      </c>
-      <c r="R2">
-        <v>43.70830237875635</v>
-      </c>
-      <c r="S2">
-        <v>61.763852132282842</v>
-      </c>
-      <c r="T2">
-        <v>62.761172173360876</v>
-      </c>
-      <c r="U2">
-        <v>52.291330658056964</v>
-      </c>
-      <c r="V2">
-        <v>62.517312475297857</v>
-      </c>
-      <c r="W2">
-        <v>35.583129721771812</v>
-      </c>
-      <c r="X2">
-        <v>30.074452820896781</v>
-      </c>
-      <c r="Y2">
-        <v>37.155393586352183</v>
-      </c>
-      <c r="Z2">
-        <v>71.785278375869311</v>
-      </c>
-      <c r="AA2">
-        <v>54.763640487387441</v>
-      </c>
-      <c r="AB2">
-        <v>55.210589907694143</v>
-      </c>
-      <c r="AC2">
-        <v>65.482906873480758</v>
-      </c>
-      <c r="AD2">
-        <v>56.11780058933347</v>
-      </c>
-      <c r="AE2">
-        <v>68.656762057490411</v>
-      </c>
-      <c r="AF2">
-        <v>42.403551713544466</v>
-      </c>
-      <c r="AG2">
-        <v>93.034466669864102</v>
-      </c>
-      <c r="AH2">
-        <v>58.12325379564092</v>
-      </c>
-      <c r="AI2">
-        <v>84.722601575746978</v>
-      </c>
-      <c r="AJ2">
-        <v>83.834133335035517</v>
-      </c>
-      <c r="AK2">
-        <v>119.10969581923861</v>
-      </c>
-      <c r="AL2">
-        <v>53.782259850978427</v>
-      </c>
-      <c r="AM2">
-        <v>64.898004445055406</v>
-      </c>
-      <c r="AN2">
-        <v>39.514648764461739</v>
-      </c>
       <c r="AO2">
-        <v>31.344117924624353</v>
+        <v>31.344117953572294</v>
       </c>
       <c r="AP2">
-        <v>24.074800568160871</v>
+        <v>24.074800574902177</v>
       </c>
       <c r="AQ2">
-        <v>45.014378023799551</v>
+        <v>45.014378046495629</v>
       </c>
       <c r="AR2">
-        <v>60.237800712711234</v>
+        <v>60.237800734265548</v>
       </c>
       <c r="AS2">
-        <v>72.364305182983415</v>
+        <v>72.364305198451817</v>
       </c>
       <c r="AT2">
-        <v>53.914716557768237</v>
+        <v>53.914716576097661</v>
       </c>
       <c r="AU2">
-        <v>58.802387497918552</v>
+        <v>58.802387500496238</v>
       </c>
       <c r="AV2">
-        <v>49.062739214517954</v>
+        <v>49.062739250769283</v>
       </c>
       <c r="AW2">
-        <v>32.380244188816647</v>
+        <v>32.380244216830576</v>
       </c>
       <c r="AX2">
-        <v>39.44815730479263</v>
+        <v>39.448157347019382</v>
       </c>
       <c r="AY2">
-        <v>54.07756029009159</v>
+        <v>54.077560312136988</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>52.235002876020943</v>
+      </c>
+      <c r="C3">
+        <v>67.441997328535692</v>
+      </c>
+      <c r="D3">
+        <v>55.64096087378681</v>
+      </c>
+      <c r="E3">
+        <v>58.914281663200114</v>
+      </c>
+      <c r="F3">
+        <v>59.424385557928851</v>
+      </c>
+      <c r="G3">
+        <v>44.3359245401899</v>
+      </c>
+      <c r="H3">
+        <v>89.419835530568179</v>
+      </c>
+      <c r="I3">
+        <v>40.922245864459796</v>
+      </c>
+      <c r="J3">
+        <v>86.590756584106984</v>
+      </c>
+      <c r="K3">
+        <v>69.220603669916386</v>
+      </c>
+      <c r="L3">
+        <v>71.637181230038564</v>
+      </c>
+      <c r="M3">
+        <v>45.458396311923394</v>
+      </c>
+      <c r="N3">
         <v>61.871043494024434</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>42.42826502455631</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>33.71658319748137</v>
+      </c>
+      <c r="Q3">
+        <v>39.136543954147434</v>
+      </c>
+      <c r="R3">
+        <v>51.213714597804675</v>
+      </c>
+      <c r="S3">
+        <v>55.456489578873637</v>
+      </c>
+      <c r="T3">
+        <v>80.162921769802793</v>
+      </c>
+      <c r="U3">
+        <v>71.554002775914896</v>
+      </c>
+      <c r="V3">
+        <v>46.271018956361011</v>
+      </c>
+      <c r="W3">
+        <v>66.36438568221655</v>
+      </c>
+      <c r="X3">
+        <v>24.39052892833147</v>
+      </c>
+      <c r="Y3">
+        <v>37.71251021758907</v>
+      </c>
+      <c r="Z3">
+        <v>39.930960850702817</v>
+      </c>
+      <c r="AA3">
+        <v>47.391150123023543</v>
+      </c>
+      <c r="AB3">
+        <v>76.450572277650565</v>
+      </c>
+      <c r="AC3">
+        <v>58.877363070345027</v>
+      </c>
+      <c r="AD3">
+        <v>69.236694814619796</v>
+      </c>
+      <c r="AE3">
+        <v>49.135949329274254</v>
+      </c>
+      <c r="AF3">
+        <v>48.46330444272624</v>
+      </c>
+      <c r="AG3">
+        <v>90.597951209736678</v>
+      </c>
+      <c r="AH3">
+        <v>45.785590218906307</v>
+      </c>
+      <c r="AI3">
+        <v>90.787043913901442</v>
+      </c>
+      <c r="AJ3">
+        <v>73.772817765408121</v>
+      </c>
+      <c r="AK3">
+        <v>106.4637561429963</v>
+      </c>
+      <c r="AL3">
+        <v>36.735567591934256</v>
+      </c>
+      <c r="AM3">
         <v>53.288661504018926</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>49.837777848804549</v>
       </c>
-      <c r="F3">
-        <v>59.424385543396042</v>
-      </c>
-      <c r="G3">
-        <v>44.33592450961838</v>
-      </c>
-      <c r="H3">
-        <v>89.419835480503352</v>
-      </c>
-      <c r="I3">
-        <v>40.922245853341785</v>
-      </c>
-      <c r="J3">
-        <v>86.59075655708601</v>
-      </c>
-      <c r="K3">
-        <v>69.220603644685369</v>
-      </c>
-      <c r="L3">
-        <v>71.637181182195533</v>
-      </c>
-      <c r="M3">
-        <v>45.458358083360949</v>
-      </c>
-      <c r="N3">
-        <v>61.871043451204251</v>
-      </c>
-      <c r="O3">
-        <v>42.42826500999309</v>
-      </c>
-      <c r="P3">
-        <v>33.716583149002474</v>
-      </c>
-      <c r="Q3">
-        <v>39.13654394101605</v>
-      </c>
-      <c r="R3">
-        <v>51.213714565156309</v>
-      </c>
-      <c r="S3">
-        <v>55.456489564493623</v>
-      </c>
-      <c r="T3">
-        <v>80.162921735969078</v>
-      </c>
-      <c r="U3">
-        <v>71.554002752335876</v>
-      </c>
-      <c r="V3">
-        <v>46.271018948148154</v>
-      </c>
-      <c r="W3">
-        <v>66.364385638484123</v>
-      </c>
-      <c r="X3">
-        <v>24.390528920901346</v>
-      </c>
-      <c r="Y3">
-        <v>37.712510198746969</v>
-      </c>
-      <c r="Z3">
-        <v>39.930960837461363</v>
-      </c>
-      <c r="AA3">
-        <v>47.391150083694221</v>
-      </c>
-      <c r="AB3">
-        <v>76.450572271393</v>
-      </c>
-      <c r="AC3">
-        <v>58.877363045590606</v>
-      </c>
-      <c r="AD3">
-        <v>69.236694771488885</v>
-      </c>
-      <c r="AE3">
-        <v>49.135949323592435</v>
-      </c>
-      <c r="AF3">
-        <v>48.463304421714597</v>
-      </c>
-      <c r="AG3">
-        <v>90.597951169342153</v>
-      </c>
-      <c r="AH3">
-        <v>45.785590199655779</v>
-      </c>
-      <c r="AI3">
-        <v>90.787043879856839</v>
-      </c>
-      <c r="AJ3">
-        <v>73.772817693437545</v>
-      </c>
-      <c r="AK3">
-        <v>106.46375609898875</v>
-      </c>
-      <c r="AL3">
-        <v>36.735567558826318</v>
-      </c>
-      <c r="AM3">
-        <v>53.288661448774505</v>
-      </c>
-      <c r="AN3">
-        <v>49.837777809629173</v>
-      </c>
       <c r="AO3">
-        <v>36.35200877736581</v>
+        <v>36.352008806611686</v>
       </c>
       <c r="AP3">
-        <v>41.585220072658934</v>
+        <v>41.585220101169199</v>
       </c>
       <c r="AQ3">
-        <v>44.238443106785638</v>
+        <v>44.238443142811157</v>
       </c>
       <c r="AR3">
-        <v>56.392721234409279</v>
+        <v>56.392721249957276</v>
       </c>
       <c r="AS3">
-        <v>88.067789170382611</v>
+        <v>88.067789193246597</v>
       </c>
       <c r="AT3">
-        <v>70.401876243504915</v>
+        <v>70.401876266250497</v>
       </c>
       <c r="AU3">
-        <v>57.690779145958047</v>
+        <v>57.690779179897582</v>
       </c>
       <c r="AV3">
-        <v>70.862891632407184</v>
+        <v>70.862891740366067</v>
       </c>
       <c r="AW3">
-        <v>32.603135471620831</v>
+        <v>32.603135551247092</v>
       </c>
       <c r="AX3">
-        <v>43.041071683774007</v>
+        <v>43.041071712955777</v>
       </c>
       <c r="AY3">
-        <v>39.477841571678098</v>
+        <v>39.477841603152314</v>
       </c>
     </row>
   </sheetData>
